--- a/predictions_open_to_close_final.xlsx
+++ b/predictions_open_to_close_final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valentina\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4E2B7D-63E2-473C-AFC8-C2EBC8BB5CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633ED868-7518-4361-9FE9-80097C56CD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
     <t>date</t>
   </si>
   <si>
-    <t>prediction</t>
+    <t>pred</t>
   </si>
 </sst>
 </file>
@@ -417,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="C422" sqref="C422"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
